--- a/18 financial/self_long价投.xlsx
+++ b/18 financial/self_long价投.xlsx
@@ -4,65 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23460" windowHeight="9900" activeTab="3"/>
+    <workbookView windowWidth="23475" windowHeight="9900" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
     <sheet name="02 整体市场风险" sheetId="8" r:id="rId2"/>
     <sheet name="03 筛选条件" sheetId="2" r:id="rId3"/>
     <sheet name="04 财务风险" sheetId="6" r:id="rId4"/>
-    <sheet name="05 四维1" sheetId="3" r:id="rId5"/>
-    <sheet name="06 四维2" sheetId="4" r:id="rId6"/>
-    <sheet name="07 估值、安全边际" sheetId="9" r:id="rId7"/>
-    <sheet name="08 计划、资金管理" sheetId="7" r:id="rId8"/>
-    <sheet name="股债平衡" sheetId="10" r:id="rId9"/>
+    <sheet name="政策、资金是否涌入" sheetId="3" r:id="rId5"/>
+    <sheet name="公司质地" sheetId="4" r:id="rId6"/>
+    <sheet name="是否低估" sheetId="11" r:id="rId7"/>
+    <sheet name="07 估值、安全边际" sheetId="9" r:id="rId8"/>
+    <sheet name="08 计划、资金管理" sheetId="7" r:id="rId9"/>
+    <sheet name="股债平衡" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
-  <si>
-    <t>趋势价值要领：</t>
-  </si>
-  <si>
-    <t>筛选个股、指数（加入自选观察）》四维判断（政策、资金、公司质地、低估）》是否有机会》估值（根据财务风险评估》安全边际》计划制定（止盈止损线）、出仓》五档资金管理（不可满仓，留有预备军）</t>
-  </si>
-  <si>
-    <t>筛选个股 白马（高roe），烟蒂，成长（高eps），（细分）领域龙头</t>
-  </si>
-  <si>
-    <t>政策指标：整体环境，流动性，利率</t>
-  </si>
-  <si>
-    <t>资金指标：北上资金，大资金，大盘资金</t>
-  </si>
-  <si>
-    <t>公司质地：所属上下游，财务报表，财务是否有可能造假， 资产与债务，现金流</t>
-  </si>
-  <si>
-    <t>低估： 类股情况（大盘先跌》蓝筹跌》小盘跌》超级强势股跌）（次新股1-2年最低点在1.5-2pb之间），是否是特殊情况导致，是否可以修复？ 戴维斯双击增长与预期，自我三杀法“1熊市清盘2业绩下滑3类股狂跌”戴维斯双杀，情绪指标？</t>
-  </si>
-  <si>
-    <t>是否有机会：按维度评分</t>
-  </si>
-  <si>
-    <t>估值：以绝对估值为主，按所属类型相对估值为辅助。</t>
-  </si>
-  <si>
-    <t>安全边际：折扣</t>
-  </si>
-  <si>
-    <t>资金管理：五档容错（间隔10%-15%）调仓“强不换弱”“弱小赚可换强”“挡位互换”很多第四第五档的钱根本用不到可以挪到别的地方防守，滚动</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年报、研报、利润表、现金流量表、资产负债表   萝卜投研、理杏仁、i问财、东方财富网的研报模块、股票研究报告网、慧博智能策略终端   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1、价投股/股息股（如白马股）
-关键词：安全边际；低估值；超长线持有、越跌越买；
-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="148">
+  <si>
+    <t>价投股/股息股</t>
+  </si>
+  <si>
+    <t>关键词：安全边际；低估值；超长线持有、越跌越买</t>
   </si>
   <si>
     <t>整体市场风险以及合适投资机会</t>
@@ -215,6 +181,9 @@
     <t xml:space="preserve">                                             筛选条件</t>
   </si>
   <si>
+    <t>筛选个股 白马（高roe），烟蒂，成长（高eps），（细分）领域龙头</t>
+  </si>
+  <si>
     <t>白马（高roe）（细分）领域龙头  排除周期股</t>
   </si>
   <si>
@@ -230,10 +199,8 @@
     <t>4 北上资金前20-50，选3-5年高roe，营收利润高增长的，竞争优势，增长需求的，稀缺性</t>
   </si>
   <si>
-    <t>5 动态PEG&lt;1，pe&lt;20,成长性公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 北冥战法  1、找出北上资金持仓前50名。
+    <t xml:space="preserve">北冥战法  
+1、找出北上资金持仓前50名。
 2、用股东价值折现法进行估值，找出这50只股票中的低估股。（比如中国平安、中国国旅、格力电器、海螺水泥）
 3、低估时买入，高估时卖出，然后继续从中找出低估股买入。
 股东价值=分红+（净利润-分红）*ROE。
@@ -291,7 +258,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">                         四维判断（政策、资金、公司质地、低估）</t>
+    <t xml:space="preserve">                         政策、资金</t>
   </si>
   <si>
     <t>权重：1-3年，经济大势&gt;估值&gt;公司 30年周期公司&gt;估值&gt;经济大势</t>
@@ -300,22 +267,19 @@
     <t>政策的本质是中国是社会主义国家体制，资金的本质是博弈。主力跟中小散都试图用低价买过对方</t>
   </si>
   <si>
-    <t>十年国债利率
-银行是否放水？ 提准变动，降息利好加息利空
-70pe以上个股占&lt;10%入市，&gt;45%离开
-新高新低
-主力跟中小散户资金流对比，跟主力一起
-两市融资余额，可以作为风险指标，如2015年融资余额高达2万亿，这是融资来的非常危险
-泰康资产 社保基金 大资金</t>
-  </si>
-  <si>
-    <t>公司的本质是盈利。盈利的本质是供不应求。供这端：看竞争格局；需求这端看市场容量。</t>
-  </si>
-  <si>
-    <t>估值的本质是未来现金流贴现。贴现本质是未来的钱没有今天的钱值钱。贴现率降低估值就会升高。钱供不应求，利率就高，贴现率就高。钱供过于求，贴现率就低。当公司产品供不应求，市场资金供过于求，估值是最高的。注意市盈率陷阱，6倍市盈率的公司如果只能活两年就是贵的，30倍市盈率的公司未来10年每年增速达到30%就不贵</t>
-  </si>
-  <si>
-    <t>公司：</t>
+    <t>银行利率</t>
+  </si>
+  <si>
+    <t>对应个股是否有政策支撑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         公司质地</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 竞争格局；2 市场容量。</t>
+  </si>
+  <si>
+    <t>公司上下游格局：</t>
   </si>
   <si>
     <t xml:space="preserve">所属上下游，波特五力模型：作为供应商是否议价能力强？作为购买者是否议价能力强？新进入者的威胁？有替代品吗？同行竞争怎么样？
@@ -325,7 +289,31 @@
 </t>
   </si>
   <si>
-    <t>杜邦分析法</t>
+    <t>护城河：</t>
+  </si>
+  <si>
+    <t>品牌溢价（宽）</t>
+  </si>
+  <si>
+    <t>品牌搜索</t>
+  </si>
+  <si>
+    <t>专利护城河 （宽）</t>
+  </si>
+  <si>
+    <t>政府授权、政府牌照等 （宽）</t>
+  </si>
+  <si>
+    <t>转换成本（宽）</t>
+  </si>
+  <si>
+    <t>网络效应（宽）</t>
+  </si>
+  <si>
+    <t>规模效应</t>
+  </si>
+  <si>
+    <t>杜邦分析法看是什么类型，也可以发现风险</t>
   </si>
   <si>
     <t>roe=净利润/净资产===&gt;（净利润/营业总收入）*（营业总收入/总资产）*（总资产/净资产）===》销售净利率*总资产周转率*杠杆倍数（也叫权益系数）  
@@ -335,44 +323,11 @@
 有息负债、无息负债、流动比、速动比</t>
   </si>
   <si>
-    <t>护城河：</t>
-  </si>
-  <si>
-    <t>品牌溢价（宽）</t>
-  </si>
-  <si>
-    <t>品牌搜索</t>
-  </si>
-  <si>
-    <t>专利护城河 （宽）</t>
-  </si>
-  <si>
-    <t>政府授权、政府牌照等 （宽）</t>
-  </si>
-  <si>
-    <t>转换成本（宽）</t>
-  </si>
-  <si>
-    <t>网络效应（宽）</t>
-  </si>
-  <si>
-    <t>规模效应</t>
-  </si>
-  <si>
-    <t>低估：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 现金流贴现：增长率、贴现率（一般用长期国债做）、存活时间
-2 市盈率：倒数就是投资回报率，跟国债比 a跟国债比b跟自己比 c跟同行比 低市盈率陷阱：并不是越低越好，因为一个低市盈率也意味不被看好，存活时间不确定
-3 peg=pe/g g为未来3-5年市盈率增长率，&lt;1为低估
-4市净率 pb=市值/净资产 =》市净率=市值/盈利*盈利/净资产=》pe/roe 所以回报率=roe/pb
-5市销率=市值/年度销售额=市值/盈利*盈利/销售额=市盈率/销售利润率
-6市场处于熊市的末期，跌到实际价值外，若ROE 平时为 15%以上，机会来了
-7外部原因导致如行业政策、竞争态势等（财报滞后性）
-8股价增长率均值回归 ：以股价年化增长为参照，判断行情高估或低估，当年涨幅并且
-最近5年都涨幅过大就容易回调；反之亦然
-9 通过公司好坏和价格高低构建4个公司象限
-</t>
+    <t xml:space="preserve">
+低市盈率陷阱：并不是越低越好，因为一个低市盈率也意味不被看好，存活时间不确定
+1 peg=pe/g g为未来3-5年市盈率增长率，&lt;1为低估
+2 回报率高，市净率 pb=市值/净资产 =》市净率=市值/盈利*盈利/净资产=》pe/roe 所以回报率=roe/pb
+3 估值表</t>
   </si>
   <si>
     <t xml:space="preserve">                             估值、安全边际</t>
@@ -593,6 +548,18 @@
     <t>假设各种场景，进行概率分布，然后用蒙特卡洛进行上万次模拟，得出估值分布。低于预期 符合预期 高于预期</t>
   </si>
   <si>
+    <t>peg</t>
+  </si>
+  <si>
+    <t>peg=pe/g g为未来3-5年市盈率增长率，&lt;1为低估</t>
+  </si>
+  <si>
+    <t>roe</t>
+  </si>
+  <si>
+    <t>ROE=pb/pe</t>
+  </si>
+  <si>
     <t xml:space="preserve">               计划制定（止盈止损线）、出仓+五档资金管理（不可满仓，留有预备军）</t>
   </si>
   <si>
@@ -618,13 +585,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -694,7 +661,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +675,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -715,30 +704,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,19 +718,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -775,10 +741,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,14 +774,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -824,14 +783,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,7 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,55 +873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,19 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +915,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,31 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,7 +969,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,17 +1136,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,26 +1174,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,11 +1197,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1259,7 +1226,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1271,16 +1238,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,18 +1256,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1313,95 +1280,95 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,17 +1417,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1524,7 +1482,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1526,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2018,8 +1976,8 @@
   <sheetPr/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:V13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2055,55 +2013,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="33" customHeight="1" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="39" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="42" customHeight="1" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="3" s="4" customFormat="1" ht="33" customHeight="1"/>
+    <row r="4" s="4" customFormat="1" ht="39" customHeight="1"/>
+    <row r="5" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="6" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="7" s="4" customFormat="1" ht="39" customHeight="1"/>
+    <row r="8" s="4" customFormat="1" ht="39" customHeight="1"/>
+    <row r="9" s="4" customFormat="1" ht="39" customHeight="1"/>
+    <row r="10" s="4" customFormat="1" ht="27" customHeight="1"/>
+    <row r="11" s="4" customFormat="1" ht="42" customHeight="1"/>
     <row r="12" s="3" customFormat="1" ht="33" customHeight="1" spans="1:22">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -2126,10 +2046,8 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" ht="87" customHeight="1" spans="1:22">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
+    <row r="13" ht="37" customHeight="1" spans="1:22">
+      <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2174,6 +2092,46 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A16:P16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="16" ht="28" customHeight="1" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:P16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2185,460 +2143,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="25" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="25" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="12.3333333333333" style="22" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="22" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" s="23" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-    </row>
-    <row r="3" s="23" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" s="23" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" s="23" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="str">
+    <row r="1" s="20" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" s="20" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+    </row>
+    <row r="3" s="20" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" s="20" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A4" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" s="20" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="str">
         <f>IF(B6&lt;50%,IF(C6&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="7" s="23" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33" t="str">
+    <row r="7" s="20" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="23" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="34" t="str">
+    <row r="8" s="20" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="31" t="str">
         <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="11" s="24" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A11" s="37" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="11" s="21" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A11" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="34"/>
+    </row>
+    <row r="12" s="21" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A12" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="21" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" s="21" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" s="21" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" s="21" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="E16" s="35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="E17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="37"/>
-    </row>
-    <row r="12" s="24" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A12" s="24" t="s">
+      <c r="I17" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" s="24" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" s="24" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A14" s="39" t="s">
+    <row r="18" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" s="24" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" s="24" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="E16" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" s="24" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="44"/>
-      <c r="E17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" s="24" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="E18" s="45">
+      <c r="B18" s="34"/>
+      <c r="E18" s="42">
         <v>38718</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="37">
         <v>2.72</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="43">
         <v>2.1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="44">
         <f t="shared" ref="H18:H23" si="0">F18/G18</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I18" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" s="24" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E19" s="45">
+      <c r="I18" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E19" s="42">
         <v>39448</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="37">
         <v>0.36</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="43">
         <v>2.99</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="44">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I19" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" s="24" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="45">
+      <c r="I19" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="42">
         <v>41791</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="37">
         <v>3.76</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="43">
         <v>3.3</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="44">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" s="24" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="I20" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="42">
         <v>42156</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="37">
         <v>1.93</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="37">
         <v>2.61</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="44">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I21" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" s="24" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="45">
+      <c r="I21" s="52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="42">
         <v>43435</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="43">
         <v>3.05</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="37">
         <v>2.95</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="44">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I22" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" s="24" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E23" s="45">
+      <c r="I22" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E23" s="42">
         <v>43556</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="37">
         <v>2.47</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="37">
         <v>3.04</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="44">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" s="21" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" s="21" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A26" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" s="21" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A27" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A28" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" s="24" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-    </row>
-    <row r="25" s="24" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" s="24" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A26" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="40" t="s">
+      <c r="C29" s="36"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" s="21" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" s="21" customFormat="1" ht="13.5"/>
+    <row r="32" s="21" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A32" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="40" t="s">
+    </row>
+    <row r="33" s="21" customFormat="1" ht="13.5"/>
+    <row r="34" s="21" customFormat="1" ht="13.5"/>
+    <row r="35" s="21" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A35" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" s="24" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A27" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" s="24" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A28" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" s="24" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" s="24" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" s="24" customFormat="1" ht="13.5"/>
-    <row r="32" s="24" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A32" s="57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" s="24" customFormat="1" ht="13.5"/>
-    <row r="34" s="24" customFormat="1" ht="13.5"/>
-    <row r="35" s="24" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A35" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" s="24" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="38">
+    </row>
+    <row r="36" s="21" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="35">
         <v>2.86</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="35">
         <v>2.937</v>
       </c>
-      <c r="C36" s="58">
+      <c r="C36" s="55">
         <f>A36/B36</f>
         <v>0.973782771535581</v>
       </c>
     </row>
     <row r="40" ht="106" customHeight="1" spans="1:13">
-      <c r="A40" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
+      <c r="A40" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="59"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2662,17 +2620,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:V9"/>
+      <selection activeCell="A8" sqref="A8:V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="21" t="s">
-        <v>60</v>
+      <c r="A1" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2693,273 +2651,271 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="22" customHeight="1" spans="1:22">
-      <c r="A2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="A2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
     </row>
     <row r="3" ht="19" customHeight="1" spans="1:22">
-      <c r="A3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="A3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:22">
-      <c r="A4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="A4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:22">
-      <c r="A5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="A5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
     </row>
     <row r="6" ht="22" customHeight="1" spans="1:22">
-      <c r="A6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="A6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:22">
-      <c r="A7" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:22">
-      <c r="A8" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" ht="69" customHeight="1" spans="1:22">
-      <c r="A9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-    </row>
-    <row r="10" ht="218" customHeight="1" spans="1:22">
-      <c r="A10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-    </row>
-    <row r="11" ht="153" customHeight="1" spans="1:22">
-      <c r="A11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-    </row>
-    <row r="12" ht="159" customHeight="1" spans="1:22">
-      <c r="A12" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" ht="111" customHeight="1" spans="1:22">
+      <c r="A8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" ht="218" customHeight="1" spans="1:22">
+      <c r="A9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" ht="153" customHeight="1" spans="1:22">
+      <c r="A10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" ht="159" customHeight="1" spans="1:22">
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3222,32 +3178,8 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
     </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:V2"/>
     <mergeCell ref="A3:V3"/>
@@ -3270,7 +3202,6 @@
     <mergeCell ref="A20:V20"/>
     <mergeCell ref="A21:V21"/>
     <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A23:V23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3283,15 +3214,15 @@
   <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3314,8 +3245,8 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" ht="192" customHeight="1" spans="1:16">
-      <c r="A2" s="20" t="s">
-        <v>72</v>
+      <c r="A2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3346,10 +3277,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A1" sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3359,7 +3290,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3381,102 +3312,29 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" ht="18.75" spans="1:20">
-      <c r="A3" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-    </row>
-    <row r="4" customFormat="1" ht="6" hidden="1" customHeight="1"/>
-    <row r="5" customFormat="1" hidden="1"/>
-    <row r="7" s="17" customFormat="1" ht="114" customHeight="1" spans="1:20">
-      <c r="A7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="27" customHeight="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="28" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16" customHeight="1"/>
+    <row r="7" customFormat="1" ht="16" customHeight="1"/>
+    <row r="8" customFormat="1" ht="16" customHeight="1"/>
     <row r="9" customFormat="1" ht="16" customHeight="1"/>
     <row r="10" customFormat="1" ht="16" customHeight="1"/>
     <row r="11" customFormat="1" ht="16" customHeight="1"/>
@@ -3501,15 +3359,9 @@
     <row r="30" customFormat="1" ht="16" customHeight="1"/>
     <row r="31" customFormat="1" ht="16" customHeight="1"/>
     <row r="32" customFormat="1" ht="16" customHeight="1"/>
-    <row r="33" customFormat="1" ht="16" customHeight="1"/>
-    <row r="34" customFormat="1" ht="16" customHeight="1"/>
-    <row r="35" customFormat="1" ht="16" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A7:T8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3520,10 +3372,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3534,7 +3386,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3558,7 +3410,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3580,138 +3432,107 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" ht="45" customHeight="1" spans="1:20">
-      <c r="A3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:1">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" ht="67" customHeight="1" spans="1:13">
-      <c r="A8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+    <row r="5" ht="24" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" ht="67" customHeight="1" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" ht="148" customHeight="1" spans="1:12">
-      <c r="A16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" ht="174" customHeight="1" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" ht="144" customHeight="1" spans="1:12">
+      <c r="A28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3721,10 +3542,50 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="148" customHeight="1" spans="1:12">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3737,7 +3598,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -3760,7 +3621,7 @@
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:19">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -3783,16 +3644,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3812,10 +3673,10 @@
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:19">
       <c r="A4" s="11" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3835,10 +3696,10 @@
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:19">
       <c r="A5" s="11" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3858,13 +3719,13 @@
     </row>
     <row r="6" ht="66" customHeight="1" spans="1:19">
       <c r="A6" s="10" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3884,13 +3745,13 @@
     </row>
     <row r="7" ht="101" customHeight="1" spans="1:19">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3910,14 +3771,14 @@
     </row>
     <row r="8" ht="126" customHeight="1" spans="1:19">
       <c r="A8" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -3937,14 +3798,14 @@
     </row>
     <row r="9" ht="106" customHeight="1" spans="1:19">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -3964,11 +3825,11 @@
     </row>
     <row r="10" ht="81" spans="1:19">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -3988,11 +3849,11 @@
     </row>
     <row r="11" ht="47" customHeight="1" spans="1:19">
       <c r="A11" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -4012,14 +3873,14 @@
     </row>
     <row r="12" ht="142" customHeight="1" spans="1:19">
       <c r="A12" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -4039,11 +3900,11 @@
     </row>
     <row r="13" ht="154" customHeight="1" spans="1:19">
       <c r="A13" s="10" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -4063,11 +3924,11 @@
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:19">
       <c r="A14" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -4087,11 +3948,11 @@
     </row>
     <row r="15" ht="35" customHeight="1" spans="1:19">
       <c r="A15" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="5" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -4111,11 +3972,11 @@
     </row>
     <row r="16" ht="54" spans="1:19">
       <c r="A16" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -4135,11 +3996,11 @@
     </row>
     <row r="17" ht="84" customHeight="1" spans="1:19">
       <c r="A17" s="10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -4159,11 +4020,11 @@
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:19">
       <c r="A18" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -4183,13 +4044,13 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4211,10 +4072,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -4234,16 +4095,16 @@
     </row>
     <row r="21" ht="148.5" spans="1:19">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -4265,7 +4126,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -4285,13 +4146,13 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -4313,10 +4174,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -4336,11 +4197,11 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:19">
       <c r="A25" s="10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -4360,11 +4221,11 @@
     </row>
     <row r="26" ht="34" customHeight="1" spans="1:19">
       <c r="A26" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -4381,6 +4242,22 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4399,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T10"/>
@@ -4412,7 +4289,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4436,7 +4313,7 @@
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:17">
       <c r="A2" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4457,7 +4334,7 @@
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4625,44 +4502,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A16:P16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="16" ht="28" customHeight="1" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:P16"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/18 financial/self_long价投.xlsx
+++ b/18 financial/self_long价投.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="23475" windowHeight="9900" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
   <si>
     <t>价投股/股息股</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve">                             财务风险</t>
+  </si>
+  <si>
+    <t>我比较关注的是：现金肖像、存货、负债</t>
   </si>
   <si>
     <t>现金肖像</t>
@@ -538,6 +541,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>折扣</t>
     </r>
     <r>
@@ -1445,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,29 +1522,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,7 +1751,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12964795" y="19143980"/>
+          <a:off x="12964795" y="18972530"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1814,7 +1812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="16916400"/>
+          <a:off x="5772150" y="16744950"/>
           <a:ext cx="6115050" cy="1562100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2245,7 +2243,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2283,460 +2281,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="43" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="43" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="41"/>
+    <col min="1" max="1" width="12.3333333333333" style="39" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A1" s="44" t="s">
+    <row r="1" s="37" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" s="41" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A2" s="45" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+    </row>
+    <row r="2" s="37" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-    </row>
-    <row r="3" s="41" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+    </row>
+    <row r="3" s="37" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" s="41" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A4" s="47" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" s="37" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" s="41" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A5" s="49" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" s="37" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="41" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A6" s="49" t="s">
+    <row r="6" s="37" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51" t="str">
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47" t="str">
         <f>IF(B6&lt;50%,IF(C6&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="7" s="41" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="49" t="s">
+    <row r="7" s="37" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="41" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="49" t="s">
+    <row r="8" s="37" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="52" t="str">
+      <c r="B8" s="48" t="str">
         <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-    </row>
-    <row r="11" s="42" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A11" s="55" t="s">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+    </row>
+    <row r="11" s="38" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A11" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55"/>
-    </row>
-    <row r="12" s="42" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A12" s="42" t="s">
+      <c r="B11" s="51"/>
+    </row>
+    <row r="12" s="38" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A12" s="38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="42" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" s="42" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A14" s="57" t="s">
+    <row r="13" s="38" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" s="38" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-    </row>
-    <row r="15" s="42" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="58" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" s="38" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" s="42" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="16" s="38" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="57"/>
+      <c r="E16" s="52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="42" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="62"/>
-      <c r="E17" s="58" t="s">
+    <row r="17" s="38" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="58"/>
+      <c r="E17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="54" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="42" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="55" t="s">
+    <row r="18" s="38" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="E18" s="63">
+      <c r="B18" s="51"/>
+      <c r="E18" s="59">
         <v>38718</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="54">
         <v>2.72</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="60">
         <v>2.1</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="61">
         <f t="shared" ref="H18:H23" si="0">F18/G18</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" s="42" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E19" s="63">
+    <row r="19" s="38" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E19" s="59">
         <v>39448</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="54">
         <v>0.36</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="60">
         <v>2.99</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="61">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="42" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="63">
+    <row r="20" s="38" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="59">
         <v>41791</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="54">
         <v>3.76</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="60">
         <v>3.3</v>
       </c>
-      <c r="H20" s="65">
+      <c r="H20" s="61">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="42" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A21" s="56" t="s">
+    <row r="21" s="38" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="59">
         <v>42156</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="54">
         <v>1.93</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="54">
         <v>2.61</v>
       </c>
-      <c r="H21" s="65">
+      <c r="H21" s="61">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" s="42" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="56" t="s">
+    <row r="22" s="38" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="59">
         <v>43435</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="60">
         <v>3.05</v>
       </c>
-      <c r="G22" s="58">
+      <c r="G22" s="54">
         <v>2.95</v>
       </c>
-      <c r="H22" s="65">
+      <c r="H22" s="61">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I22" s="69" t="s">
+      <c r="I22" s="65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E23" s="63">
+    <row r="23" s="38" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E23" s="59">
         <v>43556</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="54">
         <v>2.47</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="54">
         <v>3.04</v>
       </c>
-      <c r="H23" s="65">
+      <c r="H23" s="61">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I23" s="73" t="s">
+      <c r="I23" s="69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="42" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" s="42" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" s="42" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A26" s="58" t="s">
+    <row r="24" s="38" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="63"/>
+    </row>
+    <row r="25" s="38" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" s="38" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A26" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" s="42" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A27" s="69" t="s">
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+    </row>
+    <row r="27" s="38" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A27" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-    </row>
-    <row r="28" s="42" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A28" s="72" t="s">
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" s="38" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A28" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-    </row>
-    <row r="29" s="42" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="73" t="s">
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+    </row>
+    <row r="29" s="38" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-    </row>
-    <row r="30" s="42" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="74" t="s">
+      <c r="C29" s="53"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" s="38" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-    </row>
-    <row r="31" s="42" customFormat="1" ht="13.5"/>
-    <row r="32" s="42" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A32" s="75" t="s">
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+    </row>
+    <row r="31" s="38" customFormat="1" ht="13.5"/>
+    <row r="32" s="38" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A32" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" s="42" customFormat="1" ht="13.5"/>
-    <row r="34" s="42" customFormat="1" ht="13.5"/>
-    <row r="35" s="42" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A35" s="56" t="s">
+    <row r="33" s="38" customFormat="1" ht="13.5"/>
+    <row r="34" s="38" customFormat="1" ht="13.5"/>
+    <row r="35" s="38" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A35" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" s="42" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="56">
+    <row r="36" s="38" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="52">
         <v>2.86</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="52">
         <v>2.937</v>
       </c>
-      <c r="C36" s="76">
+      <c r="C36" s="72">
         <f>A36/B36</f>
         <v>0.973782771535581</v>
       </c>
     </row>
     <row r="40" ht="106" customHeight="1" spans="1:13">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
+      <c r="A41" s="73"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2769,7 +2767,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1"/>
@@ -2791,34 +2789,34 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
     </row>
     <row r="2" ht="113" customHeight="1" spans="1:22">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
     </row>
     <row r="3" ht="159" customHeight="1" spans="1:22">
       <c r="A3" s="7" t="s">
@@ -3136,13 +3134,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="24"/>
+  </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
@@ -3168,114 +3169,138 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:9">
-      <c r="A2" s="30" t="s">
+    <row r="2" ht="39" customHeight="1" spans="1:20">
+      <c r="A2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:9">
-      <c r="A3" s="31" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" ht="34" customHeight="1" spans="1:9">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" ht="35" customHeight="1" spans="1:9">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" ht="34" customHeight="1" spans="1:9">
+      <c r="A5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:9">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:9">
+      <c r="A6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:9">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:9">
-      <c r="A9" s="37" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" ht="36" customHeight="1" spans="1:9">
+      <c r="A9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:9">
+      <c r="A10" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
@@ -3283,6 +3308,7 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3305,7 +3331,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3329,65 +3355,65 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="16" customHeight="1"/>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A5" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="A5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="16" customHeight="1"/>
     <row r="9" customFormat="1" ht="16" customHeight="1"/>
     <row r="10" customFormat="1" ht="16" customHeight="1"/>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="A11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="16" customHeight="1"/>
@@ -3433,7 +3459,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3457,7 +3483,7 @@
     </row>
     <row r="2" ht="18.75" spans="1:20">
       <c r="A2" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3480,21 +3506,21 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:13">
-      <c r="A3" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customFormat="1" ht="25" customHeight="1"/>
     <row r="5" customFormat="1" ht="25" customHeight="1"/>
@@ -3503,109 +3529,109 @@
     <row r="8" customFormat="1" ht="25" customHeight="1"/>
     <row r="9" customFormat="1" ht="25" customHeight="1"/>
     <row r="10" ht="27" customHeight="1" spans="1:13">
-      <c r="A10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="A10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:1">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" ht="31" customHeight="1" spans="1:12">
-      <c r="A32" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+      <c r="A32" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" ht="229" customHeight="1" spans="1:12">
       <c r="A33" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3652,7 +3678,7 @@
   <sheetData>
     <row r="1" ht="148" customHeight="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3680,7 +3706,7 @@
   <sheetPr/>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3694,7 +3720,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="7"/>
@@ -3717,7 +3743,7 @@
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:19">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
@@ -3740,16 +3766,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3769,10 +3795,10 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -3792,13 +3818,13 @@
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:19">
       <c r="A5" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -3818,14 +3844,14 @@
     </row>
     <row r="6" ht="126" customHeight="1" spans="1:19">
       <c r="A6" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3845,14 +3871,14 @@
     </row>
     <row r="7" ht="106" customHeight="1" spans="1:19">
       <c r="A7" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -3872,11 +3898,11 @@
     </row>
     <row r="8" ht="81" spans="1:19">
       <c r="A8" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3896,11 +3922,11 @@
     </row>
     <row r="9" ht="47" customHeight="1" spans="1:19">
       <c r="A9" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3920,14 +3946,14 @@
     </row>
     <row r="10" ht="142" customHeight="1" spans="1:19">
       <c r="A10" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3947,11 +3973,11 @@
     </row>
     <row r="11" ht="154" customHeight="1" spans="1:19">
       <c r="A11" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3971,11 +3997,11 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:19">
       <c r="A12" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -3995,11 +4021,11 @@
     </row>
     <row r="13" ht="54" spans="1:19">
       <c r="A13" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4019,11 +4045,11 @@
     </row>
     <row r="14" ht="84" customHeight="1" spans="1:19">
       <c r="A14" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -4043,11 +4069,11 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:19">
       <c r="A15" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -4067,13 +4093,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -4095,10 +4121,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -4116,18 +4142,18 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" ht="148.5" spans="1:19">
+    <row r="18" ht="135" spans="1:19">
       <c r="A18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -4149,7 +4175,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -4169,13 +4195,13 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -4197,10 +4223,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -4220,11 +4246,11 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:19">
       <c r="A22" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -4244,11 +4270,11 @@
     </row>
     <row r="23" ht="34" customHeight="1" spans="1:19">
       <c r="A23" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -4268,18 +4294,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4312,7 +4338,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4336,7 +4362,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4357,7 +4383,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:17">
       <c r="A3" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4378,7 +4404,7 @@
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4399,7 +4425,7 @@
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:17">
       <c r="A5" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4420,7 +4446,7 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4441,7 +4467,7 @@
     </row>
     <row r="7" ht="56" customHeight="1" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4462,7 +4488,7 @@
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4483,7 +4509,7 @@
     </row>
     <row r="9" ht="66" customHeight="1" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/18 financial/self_long价投.xlsx
+++ b/18 financial/self_long价投.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23475" windowHeight="9900" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="17985" windowHeight="9900" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
   <si>
     <t>价投股/股息股</t>
   </si>
@@ -283,6 +283,13 @@
   </si>
   <si>
     <t>护城河：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">另外的看法：共识。核心是社会大趋势！只有符合社会大趋势的东西才值得研究护城河和安全边际，违背的，就不存在护城河或者安全边际。初创企业本身是不可能具备超高的护城河的，护城河的建立本身就说明竞争对手已经不行了，行业趋于稳定，巴菲特老是强调护城河是因为以前世界变化慢，他资金量又大，但是对于普通人而言，与其一上来就追求高不可攀的护城河，不如先追求一个符合历史趋势的大行业
+</t>
+  </si>
+  <si>
+    <t>消费股，是可以看安全边际和护城河的</t>
   </si>
   <si>
     <t>品牌溢价（宽）</t>
@@ -837,7 +844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +884,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,10 +1332,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,16 +1344,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1346,10 +1365,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,28 +1389,28 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1400,43 +1419,37 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,17 +1458,23 @@
     <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,23 +1544,26 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,6 +1578,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1595,16 +1623,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1643,7 +1671,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1652,19 +1680,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2243,7 +2271,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2281,460 +2309,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="39" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="37" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="37"/>
+    <col min="1" max="1" width="12.3333333333333" style="42" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="42" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="40" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" s="37" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="40" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" s="37" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+    </row>
+    <row r="2" s="40" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-    </row>
-    <row r="3" s="37" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="40" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+    </row>
+    <row r="3" s="40" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-    </row>
-    <row r="4" s="37" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+    </row>
+    <row r="4" s="40" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-    </row>
-    <row r="5" s="37" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A5" s="45" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" s="40" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="37" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A6" s="45" t="s">
+    <row r="6" s="40" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47" t="str">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="str">
         <f>IF(B6&lt;50%,IF(C6&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="7" s="37" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="45" t="s">
+    <row r="7" s="40" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47" t="str">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="37" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="45" t="s">
+    <row r="8" s="40" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="48" t="str">
+      <c r="B8" s="51" t="str">
         <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="11" s="38" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A11" s="51" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="11" s="41" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51"/>
-    </row>
-    <row r="12" s="38" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="54"/>
+    </row>
+    <row r="12" s="41" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A12" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="38" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" s="38" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A14" s="53" t="s">
+    <row r="13" s="41" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+    </row>
+    <row r="14" s="41" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A14" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" s="38" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" s="41" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="52"/>
-    </row>
-    <row r="16" s="38" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53" t="s">
+      <c r="E15" s="58"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" s="41" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="E16" s="52" t="s">
+      <c r="C16" s="60"/>
+      <c r="E16" s="55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="38" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="58"/>
-      <c r="E17" s="54" t="s">
+    <row r="17" s="41" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="61"/>
+      <c r="E17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="38" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="51" t="s">
+    <row r="18" s="41" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="E18" s="59">
+      <c r="B18" s="54"/>
+      <c r="E18" s="62">
         <v>38718</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="57">
         <v>2.72</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="63">
         <v>2.1</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="64">
         <f t="shared" ref="H18:H23" si="0">F18/G18</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" s="38" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E19" s="59">
+    <row r="19" s="41" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E19" s="62">
         <v>39448</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="57">
         <v>0.36</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="63">
         <v>2.99</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="64">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="73" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="38" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="59">
+    <row r="20" s="41" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="62">
         <v>41791</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F20" s="57">
         <v>3.76</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="63">
         <v>3.3</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="64">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I20" s="65" t="s">
+      <c r="I20" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="38" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A21" s="52" t="s">
+    <row r="21" s="41" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A21" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="59">
+      <c r="E21" s="62">
         <v>42156</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="57">
         <v>1.93</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="57">
         <v>2.61</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="64">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I21" s="69" t="s">
+      <c r="I21" s="72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" s="38" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="52" t="s">
+    <row r="22" s="41" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="62">
         <v>43435</v>
       </c>
-      <c r="F22" s="60">
+      <c r="F22" s="63">
         <v>3.05</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="57">
         <v>2.95</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="64">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" s="38" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E23" s="59">
+    <row r="23" s="41" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E23" s="62">
         <v>43556</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="57">
         <v>2.47</v>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="57">
         <v>3.04</v>
       </c>
-      <c r="H23" s="61">
+      <c r="H23" s="64">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I23" s="69" t="s">
+      <c r="I23" s="72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="38" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" s="38" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-    </row>
-    <row r="26" s="38" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A26" s="54" t="s">
+    <row r="24" s="41" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" s="41" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" s="41" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A26" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-    </row>
-    <row r="27" s="38" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A27" s="65" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" s="41" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A27" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-    </row>
-    <row r="28" s="38" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A28" s="68" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" s="41" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A28" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-    </row>
-    <row r="29" s="38" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="69" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" s="41" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-    </row>
-    <row r="30" s="38" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="70" t="s">
+      <c r="C29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" s="41" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-    </row>
-    <row r="31" s="38" customFormat="1" ht="13.5"/>
-    <row r="32" s="38" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A32" s="71" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" s="41" customFormat="1" ht="13.5"/>
+    <row r="32" s="41" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A32" s="74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" s="38" customFormat="1" ht="13.5"/>
-    <row r="34" s="38" customFormat="1" ht="13.5"/>
-    <row r="35" s="38" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A35" s="52" t="s">
+    <row r="33" s="41" customFormat="1" ht="13.5"/>
+    <row r="34" s="41" customFormat="1" ht="13.5"/>
+    <row r="35" s="41" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A35" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" s="38" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="52">
+    <row r="36" s="41" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="55">
         <v>2.86</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="55">
         <v>2.937</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="75">
         <f>A36/B36</f>
         <v>0.973782771535581</v>
       </c>
     </row>
     <row r="40" ht="106" customHeight="1" spans="1:13">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2767,7 +2795,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1"/>
@@ -2789,34 +2817,34 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
     </row>
     <row r="2" ht="113" customHeight="1" spans="1:22">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" ht="159" customHeight="1" spans="1:22">
       <c r="A3" s="7" t="s">
@@ -3136,13 +3164,13 @@
   <sheetPr/>
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="24"/>
+    <col min="1" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
@@ -3170,22 +3198,22 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:20">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3194,108 +3222,108 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:9">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:9">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:9">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:9">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:9">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3365,21 +3393,21 @@
     </row>
     <row r="4" customFormat="1" ht="16" customHeight="1"/>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A6" t="s">
@@ -3395,21 +3423,21 @@
     <row r="9" customFormat="1" ht="16" customHeight="1"/>
     <row r="10" customFormat="1" ht="16" customHeight="1"/>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A12" t="s">
@@ -3444,10 +3472,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3578,15 +3606,23 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" customFormat="1" ht="64" customHeight="1" spans="1:5">
+      <c r="A18" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:5">
+      <c r="A19" s="25" t="s">
         <v>80</v>
       </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -3613,48 +3649,60 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" ht="31" customHeight="1" spans="1:12">
-      <c r="A32" s="22" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-    </row>
-    <row r="33" ht="229" customHeight="1" spans="1:12">
-      <c r="A33" s="7" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+    </row>
+    <row r="34" ht="31" customHeight="1" spans="1:12">
+      <c r="A34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+    </row>
+    <row r="35" ht="229" customHeight="1" spans="1:12">
+      <c r="A35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A10:M10"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A35:L35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3678,7 +3726,7 @@
   <sheetData>
     <row r="1" ht="148" customHeight="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3720,7 +3768,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="7"/>
@@ -3743,7 +3791,7 @@
     </row>
     <row r="2" ht="67" customHeight="1" spans="1:19">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="7"/>
@@ -3766,16 +3814,16 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -3795,10 +3843,10 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:19">
       <c r="A4" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -3818,13 +3866,13 @@
     </row>
     <row r="5" ht="66" customHeight="1" spans="1:19">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -3844,14 +3892,14 @@
     </row>
     <row r="6" ht="126" customHeight="1" spans="1:19">
       <c r="A6" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -3871,14 +3919,14 @@
     </row>
     <row r="7" ht="106" customHeight="1" spans="1:19">
       <c r="A7" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -3898,11 +3946,11 @@
     </row>
     <row r="8" ht="81" spans="1:19">
       <c r="A8" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3922,11 +3970,11 @@
     </row>
     <row r="9" ht="47" customHeight="1" spans="1:19">
       <c r="A9" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3946,14 +3994,14 @@
     </row>
     <row r="10" ht="142" customHeight="1" spans="1:19">
       <c r="A10" s="17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -3973,11 +4021,11 @@
     </row>
     <row r="11" ht="154" customHeight="1" spans="1:19">
       <c r="A11" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -3997,11 +4045,11 @@
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:19">
       <c r="A12" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4021,11 +4069,11 @@
     </row>
     <row r="13" ht="54" spans="1:19">
       <c r="A13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4045,11 +4093,11 @@
     </row>
     <row r="14" ht="84" customHeight="1" spans="1:19">
       <c r="A14" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -4069,11 +4117,11 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:19">
       <c r="A15" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -4093,13 +4141,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -4121,10 +4169,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -4144,16 +4192,16 @@
     </row>
     <row r="18" ht="135" spans="1:19">
       <c r="A18" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -4175,7 +4223,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -4195,13 +4243,13 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -4223,10 +4271,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -4246,11 +4294,11 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:19">
       <c r="A22" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
@@ -4270,11 +4318,11 @@
     </row>
     <row r="23" ht="34" customHeight="1" spans="1:19">
       <c r="A23" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -4294,18 +4342,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4386,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4362,7 +4410,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4383,7 +4431,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:17">
       <c r="A3" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4404,7 +4452,7 @@
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4425,7 +4473,7 @@
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:17">
       <c r="A5" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4446,7 +4494,7 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4467,7 +4515,7 @@
     </row>
     <row r="7" ht="56" customHeight="1" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4488,7 +4536,7 @@
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4509,7 +4557,7 @@
     </row>
     <row r="9" ht="66" customHeight="1" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/18 financial/self_long价投.xlsx
+++ b/18 financial/self_long价投.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17985" windowHeight="9900" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01 逻辑" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>价投股/股息股</t>
   </si>
@@ -356,34 +356,93 @@
     <t>要点</t>
   </si>
   <si>
-    <t>市销率</t>
+    <t>pe band</t>
+  </si>
+  <si>
+    <t>盈利稳定增长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PE=股价/每股净收益= 公司总市值/公司利润
+1 利润增速 = 1+ ROE - 分红率
+2 预计n年后每股收益(eps) = 当前eps *（1+溢价率） * (增速 +1)^n
+3 换算为股价 = eps * 预计pe，对比差额，确定损益比&gt;3</t>
+  </si>
+  <si>
+    <t>PE Band用来判断是否“好公司”、“好价格”、“估值高低”等：按预估pe，股价分布；
+1 斜率向上代表股价上升，每股eps在上升。
+2 股价线有上下起伏，整体向上，说明该公司有周期性。注意把控</t>
+  </si>
+  <si>
+    <t>pb band</t>
+  </si>
+  <si>
+    <t>净资产稳定增长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pb=股价/每股净资产= 公司总市值/公司净资产=市值/归属净利润*归属净利润/净资产=PE*ROE                            
+1 资产增速
+2 预计n年后每股净资产(bvps) = 当前bvps * 资产增速^n *（1+溢价率）
+3 换算为股价= bvps * 预计pb，对比差额，确定损益比&gt;3</t>
+  </si>
+  <si>
+    <t>公司净利润很差，波动很大，波动很大（如周期股），这时候PE Band威力就有限，用pb band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ps </t>
   </si>
   <si>
     <t>互联网：用户数点击数、新兴行业</t>
   </si>
   <si>
-    <t>企业价值收益比（EV/EBITDA倍数）</t>
-  </si>
-  <si>
-    <t>适用于制造业和各种周期性行业 利润波动大 可以和PE一起用，两个指标都低的公司，</t>
-  </si>
-  <si>
-    <t>EV/EBITDA=企业价值/息税、折旧、摊销前利润
-企业价值(EV)=公司股票总市值٬有息债务-现金及短期投资，存在少数股东权益时=市值+长期负债+少数股东权益-现金
-息税、折旧、摊销前利润（EBITDA）=收入-经营成本。</t>
-  </si>
-  <si>
-    <t>烟蒂股/清算估值法</t>
+    <t>ps = 股价/每股销售额= 公司总市值/公司销售额
+1 销售额增速
+2 预计n年后每股销售额(sps) = 当前sps *（1+溢价率） * (增速 +1)^n
+3 换算为股价= bvps * 预计ps，对比差额，确定损益比&gt;3</t>
+  </si>
+  <si>
+    <t>企业价值倍数（EV/EBITDA）</t>
+  </si>
+  <si>
+    <t>适用于制造业和各种周期性行业。
+可以和PE一起用，两个指标都低的公司
+1 营业利润亏损的公司不适合使用
+2 固定资产变化快的公司，不适合使用
+3 如果两个公司之间的税收政策差异很大，这个指标的估值结果就会失真。</t>
+  </si>
+  <si>
+    <t>PE的进化版：
+价值倍数=EV/EBITDA=企业价值/（净利润+税+折旧+摊销）
+EV(企业价值) = 市值 + 有息债务 + 少数股东权益（如果存在） - 现金及短期投资 
+EBITDA(息税、折旧、摊销前利润) = 净利润 + 税收 + 折旧费用项 +摊销费用项
+1 得到EBITDA增速，预估n年后的EBITDA
+2 通过历年企业价值倍数，假设一个合理倍数
+3 EBITDA*价值倍数=ev，跟当前ev对比差额</t>
+  </si>
+  <si>
+    <t>跟pe类似，
+p的值换为ev (排除现金);
+e的值换为ebitda（未计利息、税项、折旧及摊销前的利润）
+可用于不同企业横向对比
+包含了几乎所有公司运营所需变动的帐目，因此变动幅度不会像净利润那么大</t>
+  </si>
+  <si>
+    <t>烟蒂股/清算筛选估值</t>
+  </si>
+  <si>
+    <t>有人说跟格雷厄姆所处的时代有关</t>
   </si>
   <si>
     <t>01 筛选条件  0&lt;PB&lt;1.5 0&lt;PE&lt;10   股息率&gt;3%
 02 根据综合排名从低到高依次挑选，同行业公司不超过组合股票数量的30%  可以用excel的RANK.EQ函数排名
 03 PB分位点&lt;20%的纳入，&gt;20%的剔除
 04 凑成一个组合  8-10个左右太少就没必要弄
-港股、美股中，股息率&gt;5%(且连续7年以上分红），PE（低，正数）(0,8)，PB（低，正数）选择范围(0.3,0.7)【不能低于0.3是因为有很多老千股把PB做的很低来骗人】</t>
-  </si>
-  <si>
-    <t>也可以宽筛选条件：比如，PB&lt;2; PE&lt;15;股息率&gt;2.5%。但是放宽条件，意味把自己暴露在风险之中</t>
+跟资产之间的差额</t>
+  </si>
+  <si>
+    <t>港股、美股中，股息率&gt;5%(且连续7年以上分红），PE（低，正数）(0,8)，PB（低，正数）选择范围(0.3,0.7)【不能低于0.3是因为有很多老千股把PB做的很低来骗人】
+也可以宽筛选条件：比如，PB&lt;2; PE&lt;15;股息率&gt;2.5%。但是放宽条件，意味把自己暴露在风险之中</t>
   </si>
   <si>
     <t>周期股</t>
@@ -396,134 +455,98 @@
 4 研究这一年公司的估值，看这年的估值相对于参考标的最惨淡的时候的比值是多少 一般120%就可以建仓</t>
   </si>
   <si>
-    <t>估值低，市盈率低的时候，公司盈利达到顶峰了，但公司的股价没能上升那么快，也有很多投资周期类的老手已经估计到公司的盈利达到顶峰，往往在上升的时候出货；反过来在高估值、高市盈率的时候，也就是公司的盈利跌到谷底了。周期类行业风险很大，很多情况无法判断一个周期的长短</t>
-  </si>
-  <si>
-    <t>巴菲特比率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 股东盈利市盈率=市值/股东盈利=市值/（（净利润+折旧摊销+.. 非现金支出）- 资本开支）=市值 /（经营现金流-资本开支）=市值 / 净现金流 小于15就是便宜公司
-2 股东盈利回报 froic=(经营现金流-资本开支）/（长期负债+股东权益）至少要有15%以上
-3 资本开支/经营现金流=衡量资本使用效率  低于50%
-通过上面的筛选后，之后用菲利普.费雪的定性分析检验是否有成长性
+    <r>
+      <t xml:space="preserve">估值低，市盈率低的时候，公司盈利达到顶峰了，但公司的股价没能上升那么快，老手已经出货；
+在高估值、高市盈率的时候，也就是公司的盈利跌到谷底了。
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周期类风险在于很多情况无法判断一个周期的长短</t>
+    </r>
   </si>
   <si>
     <t>pev估值</t>
   </si>
   <si>
-    <t>PEV是专属于保险行业的一个估值指标，EV是内含价值的意思，是基于保险的业务价值计算出来每股保险股票价值多少钱。像平安的年报里就有每年的EV公布出来的。PEV＝股价／EV，PEV在1以下对于保险行业就是很低估的了。</t>
-  </si>
-  <si>
-    <t>预期年化收益率</t>
-  </si>
-  <si>
-    <t>年化收益率=（1+利润的增长率）*（1+市盈率的增长率）-1+股息率=N=（1+x）*(1+y)-1+z
-01 成长股的ROE一定要≥10%
-02：确定利润增长率：取分析师估值的平均值×60%（研报里的估值有一定意义，但不能全信他们）；过去两年利润增长率=[（第二年的利润率÷第一年的利润率）开二次方–1]×100%? 注意：如果算出来X＞30%要当心，没有公司能长年维持30%以上的增长率
-03：确定合理的市盈率：如果公司上市时间比较短，或者历史上是亏损，最近才涨起来的成长股，没有历史数据可以对比，就找同行进行比较，取同行业的平均中位值；与美国市场比较（美国市场更成熟，估值更稳定）看这个公司在熊市里的估值，确定历史最低市盈率
-04：确定股息收益率：=股息÷当前的股价，可以在理杏仁上直接查询当前股息率</t>
-  </si>
-  <si>
-    <t>如果最后算出来N＞20%可以考虑买入，如果＜10%则放弃，20%不是绝对的标准，可以根据每个人的风险承受能力调整，如果15%或者30%的年化收益率符合自己的要求，也可以设置为相应的数值；不要太多融资的，尽量挑选一些冷门的行业，甚至是慢速和中速增长的行业，最好是那些券商没有很多研报的公司，或者券商发了很多研报但股价还没有上涨的公司，如果有股票回购或大股东增持这样的股票，是加分项</t>
-  </si>
-  <si>
-    <t>小熊2.0</t>
-  </si>
-  <si>
-    <t>01 ROIC筛选，常年ROIC&gt;15%，认为盈利能力强的公司。
-02 EV/EQ 若回本年限设为n = 10，则EV/EQ = n*ROIC。
-03 回本年限调整：护城河调整，强+2，弱+1，负-1；增长调整，主要看5年EBIT，a&gt;20%，快速增长，n+2，5%&lt;a&lt;20%，慢速增长，n+1，a&lt;5%，不增长，n+0，a&lt;0，负增长，n-1；小熊基本值 = 自由现金流/资本开支，用10年数据。赚得钱与花的钱之比，单位资本开支带来的现金收入。若小熊基本值为负，则净现金流总和为负，回本年限调低一档。
-04 估值 根据计算确定的EV/EQ估计可接受的公司市值。
-EV/EQ X EQ=EV
-EQ就是最新财政年度的  有形资产值
-EV-最新财政年度的有息负债+最新财政年度的现金=可以接受的总市值MC</t>
+    <t>PEV是专属于保险行业的一个估值指标，EV是内含价值的意思，是基于保险的业务价值计算出来每股保险股票价值多少钱。像平安的年报里就有每年的EV公布出来的。</t>
+  </si>
+  <si>
+    <t>PEV＝股价／EV</t>
+  </si>
+  <si>
+    <t>PEV在1以下对于保险行业就是很低估的了</t>
   </si>
   <si>
     <t>股价增长波动模型</t>
   </si>
   <si>
-    <t>波动水位=股价/指数化增长模型 认为波动范围在3%~300%之间，50%买，200%卖。稳定盈利的公司自然增长以roe衡量</t>
-  </si>
-  <si>
-    <t>pe band</t>
-  </si>
-  <si>
-    <t>PE Band用来判断是否“好公司”、“好价格”、“估值高低”等：按预估pe，股价分布；
-1 斜率向上代表股价上升，每股eps在上升。
-2 股价线有上下起伏，整体向上，说明该公司有周期性。注意把控
-https://www.zmtc.com/caiji/2360.html</t>
-  </si>
-  <si>
-    <t>pb band</t>
-  </si>
-  <si>
-    <t>公司净利润很差，波动很大，波动很大（如周期股），这时候PE Band威力就有限，用pb band</t>
+    <t xml:space="preserve">波动水位=股价/指数化增长模型。稳定盈利的公司自然增长以roe衡量 </t>
+  </si>
+  <si>
+    <t>波动范围在3%~300%之间，50%买，200%卖。</t>
   </si>
   <si>
     <t>折现率</t>
   </si>
   <si>
-    <t>折现率怎么算？用capm做基础，然后用层积法主观调整。还可以用公司债务</t>
-  </si>
-  <si>
-    <t>pe 三段</t>
-  </si>
-  <si>
-    <t>盈利稳定的</t>
-  </si>
-  <si>
-    <t>公式  每股自由现金流=每股收益*（1-基本再投资率）。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子   
-增长率 折现率 基本再投资率
+    <t>1 R（回报率）=Rf +β（Rm-Rf） 
+    Rf 无风险利率；Rm 整体市场回报率； β 市场风险系数
+    Rf 取国债收益率；Rm 所选的股票类型回报率； β 默认为1，也要看具体类型
+2 层积法：回报率=无风险利率+ 股市风险利率 + 行业风险利率  + 公司风险利率
+    自己评估公司风险利率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 CAPM貌似科学，其实不对。个股和大盘之间的涨跌不是线性关系。
+2 风险积层法却比较主观，没有量化计算公式。
+在使用时先用CAPM法计算所有个股的折现率，作为基础。然后用风险积层法进行主观调整。
 </t>
   </si>
   <si>
-    <t>时间太长</t>
-  </si>
-  <si>
-    <t>pb 三段</t>
-  </si>
-  <si>
-    <t>净资产稳定的</t>
-  </si>
-  <si>
-    <t>公式  第一步：给定ROE和分红率，得出净资产增速=ROE*(1-分红率)
-第二步：设当前每股净资产为1，根据每年的净资产增速得出每年的净资产
-第三步：用净资产*ROE，得出每股收益  PB模型这里不可以用两阶段模型，而必须用三阶段模型
-第四步：每股收益*（1-基本再投资率）=自由现金流
-第五步：自由现金流*折现系数=现金流折现
-第六步：现金流折现，求和。得出现金流价值
-第七步：还要考虑资产的清算价值
-就算未来不赚钱，当前清算仍有价值。没有利润价值，也有资产价值。不过清算的话，将资产马上变现，
-是需要便宜处理的。这里统一假定按照资产价值的70%可以马上变现。
-第八步：未来现金流价值+当前清算价值=总价值。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子   
-roe增速维持高成长、增速放缓、增速稳定  分红率 折现率 在投资
+    <t>DCF估值</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">n年现金流=∑n（(1+g)/(1+r)*FCFF） 
+g 增长率  r折现率 FCFF当年现金流
 </t>
-  </si>
-  <si>
-    <t>FCFF 三段  绝对估值</t>
-  </si>
-  <si>
-    <t>持续经营</t>
-  </si>
-  <si>
-    <t>公式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">因子
-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">注意增长阶段、减速阶段、稳定阶段中的增长率g不一样 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+稳定阶段可以简化为：∑n（ FCFF/(折现率-g)）</t>
+    </r>
+  </si>
+  <si>
+    <t>用的话确定其中一个阶段即可，不然太长。</t>
   </si>
   <si>
     <t>蒙特卡罗模拟</t>
   </si>
   <si>
-    <t>低于预期 符合预期 高于预期</t>
+    <t>上中下三策</t>
   </si>
   <si>
     <t>达摩达兰的现金折现估值</t>
@@ -536,12 +559,6 @@
   </si>
   <si>
     <t>peg=pe/g g为未来3-5年市盈率增长率，&lt;1为低估</t>
-  </si>
-  <si>
-    <t>roe</t>
-  </si>
-  <si>
-    <t>ROE=pb/pe</t>
   </si>
   <si>
     <t xml:space="preserve">               计划制定（止盈止损线）、出仓+五档资金管理（不可满仓，留有预备军）</t>
@@ -612,7 +629,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +860,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="50">
     <fill>
@@ -1474,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1529,11 +1553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1768,7 +1789,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>106045</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2237105</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="309880" cy="273685"/>
@@ -1779,7 +1800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12964795" y="18972530"/>
+          <a:off x="12536170" y="13623925"/>
           <a:ext cx="309880" cy="273685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1812,44 +1833,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6134100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1571625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="QQ截图20211230233441"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5772150" y="16744950"/>
-          <a:ext cx="6115050" cy="1562100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2271,7 +2254,7 @@
   <sheetData>
     <row r="16" ht="28" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2309,460 +2292,460 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="42" customWidth="1"/>
-    <col min="2" max="3" width="18.8333333333333" style="42" customWidth="1"/>
-    <col min="4" max="4" width="25.3333333333333" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="12.3333333333333" style="41" customWidth="1"/>
+    <col min="2" max="3" width="18.8333333333333" style="41" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="1" ht="51" customHeight="1" spans="1:4">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="39" customFormat="1" ht="51" customHeight="1" spans="1:4">
+      <c r="A1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-    </row>
-    <row r="2" s="40" customFormat="1" ht="28" customHeight="1" spans="1:34">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" s="39" customFormat="1" ht="28" customHeight="1" spans="1:34">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-    </row>
-    <row r="3" s="40" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="43" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+    </row>
+    <row r="3" s="39" customFormat="1" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-    </row>
-    <row r="4" s="40" customFormat="1" ht="74" customHeight="1" spans="1:4">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" s="39" customFormat="1" ht="74" customHeight="1" spans="1:4">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-    </row>
-    <row r="5" s="40" customFormat="1" ht="27" customHeight="1" spans="1:4">
-      <c r="A5" s="48" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" s="39" customFormat="1" ht="27" customHeight="1" spans="1:4">
+      <c r="A5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="40" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A6" s="48" t="s">
+    <row r="6" s="39" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="str">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49" t="str">
         <f>IF(B6&lt;50%,IF(C6&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="7" s="40" customFormat="1" ht="28" customHeight="1" spans="1:4">
-      <c r="A7" s="48" t="s">
+    <row r="7" s="39" customFormat="1" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="str">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49" t="str">
         <f>IF(B7&lt;50%,IF(C7&lt;20%,"符合条件","不符合条件"),"不符合条件")</f>
         <v>符合条件</v>
       </c>
     </row>
-    <row r="8" s="40" customFormat="1" ht="33" customHeight="1" spans="1:4">
-      <c r="A8" s="48" t="s">
+    <row r="8" s="39" customFormat="1" ht="33" customHeight="1" spans="1:4">
+      <c r="A8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="51" t="str">
+      <c r="B8" s="50" t="str">
         <f>IF(D6="符合条件","可以入场",IF(D7="符合条件","可以入场","不能入场"))</f>
         <v>可以入场</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-    </row>
-    <row r="11" s="41" customFormat="1" ht="13.5" spans="1:2">
-      <c r="A11" s="54" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="11" s="40" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="54"/>
-    </row>
-    <row r="12" s="41" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A12" s="41" t="s">
+      <c r="B11" s="53"/>
+    </row>
+    <row r="12" s="40" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A12" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="41" customFormat="1" ht="13.5" spans="5:6">
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-    </row>
-    <row r="14" s="41" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A14" s="56" t="s">
+    <row r="13" s="40" customFormat="1" ht="13.5" spans="5:6">
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" s="40" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" s="41" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57" t="s">
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" s="40" customFormat="1" ht="13.5" spans="1:6">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" s="41" customFormat="1" ht="13.5" spans="1:5">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56" t="s">
+      <c r="E15" s="57"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" s="40" customFormat="1" ht="13.5" spans="1:5">
+      <c r="A16" s="55"/>
+      <c r="B16" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="E16" s="55" t="s">
+      <c r="C16" s="59"/>
+      <c r="E16" s="54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="41" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="61"/>
-      <c r="E17" s="57" t="s">
+    <row r="17" s="40" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="60"/>
+      <c r="E17" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" s="41" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A18" s="54" t="s">
+    <row r="18" s="40" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A18" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="E18" s="62">
+      <c r="B18" s="53"/>
+      <c r="E18" s="61">
         <v>38718</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="56">
         <v>2.72</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="62">
         <v>2.1</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="63">
         <f t="shared" ref="H18:H23" si="0">F18/G18</f>
         <v>1.2952380952381</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" s="41" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E19" s="62">
+    <row r="19" s="40" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E19" s="61">
         <v>39448</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <v>0.36</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="62">
         <v>2.99</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="63">
         <f t="shared" si="0"/>
         <v>0.120401337792642</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" s="41" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E20" s="62">
+    <row r="20" s="40" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E20" s="61">
         <v>41791</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="56">
         <v>3.76</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="62">
         <v>3.3</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="63">
         <f t="shared" si="0"/>
         <v>1.13939393939394</v>
       </c>
-      <c r="I20" s="68" t="s">
+      <c r="I20" s="67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" s="41" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A21" s="55" t="s">
+    <row r="21" s="40" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="61">
         <v>42156</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="56">
         <v>1.93</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="56">
         <v>2.61</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H21" s="63">
         <f t="shared" si="0"/>
         <v>0.739463601532567</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" s="41" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A22" s="55" t="s">
+    <row r="22" s="40" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A22" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="61">
         <v>43435</v>
       </c>
-      <c r="F22" s="63">
+      <c r="F22" s="62">
         <v>3.05</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="56">
         <v>2.95</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="63">
         <f t="shared" si="0"/>
         <v>1.03389830508475</v>
       </c>
-      <c r="I22" s="68" t="s">
+      <c r="I22" s="67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" s="41" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E23" s="62">
+    <row r="23" s="40" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E23" s="61">
         <v>43556</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="56">
         <v>2.47</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="56">
         <v>3.04</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="63">
         <f t="shared" si="0"/>
         <v>0.8125</v>
       </c>
-      <c r="I23" s="72" t="s">
+      <c r="I23" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="41" customFormat="1" ht="13.5" spans="5:9">
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" s="41" customFormat="1" ht="13.5" spans="5:7">
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" s="41" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A26" s="57" t="s">
+    <row r="24" s="40" customFormat="1" ht="13.5" spans="5:9">
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" s="40" customFormat="1" ht="13.5" spans="5:7">
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" s="40" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A26" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" s="41" customFormat="1" ht="13.5" spans="1:9">
-      <c r="A27" s="68" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" s="40" customFormat="1" ht="13.5" spans="1:9">
+      <c r="A27" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-    </row>
-    <row r="28" s="41" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A28" s="71" t="s">
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" s="40" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A28" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" s="41" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A29" s="72" t="s">
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" s="40" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A29" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" s="41" customFormat="1" ht="13.5" spans="1:7">
-      <c r="A30" s="73" t="s">
+      <c r="C29" s="55"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" s="40" customFormat="1" ht="13.5" spans="1:7">
+      <c r="A30" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" s="41" customFormat="1" ht="13.5"/>
-    <row r="32" s="41" customFormat="1" ht="13.5" spans="1:1">
-      <c r="A32" s="74" t="s">
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" s="40" customFormat="1" ht="13.5"/>
+    <row r="32" s="40" customFormat="1" ht="13.5" spans="1:1">
+      <c r="A32" s="73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" s="41" customFormat="1" ht="13.5"/>
-    <row r="34" s="41" customFormat="1" ht="13.5"/>
-    <row r="35" s="41" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A35" s="55" t="s">
+    <row r="33" s="40" customFormat="1" ht="13.5"/>
+    <row r="34" s="40" customFormat="1" ht="13.5"/>
+    <row r="35" s="40" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A35" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" s="41" customFormat="1" ht="13.5" spans="1:3">
-      <c r="A36" s="55">
+    <row r="36" s="40" customFormat="1" ht="13.5" spans="1:3">
+      <c r="A36" s="54">
         <v>2.86</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B36" s="54">
         <v>2.937</v>
       </c>
-      <c r="C36" s="75">
+      <c r="C36" s="74">
         <f>A36/B36</f>
         <v>0.973782771535581</v>
       </c>
     </row>
     <row r="40" ht="106" customHeight="1" spans="1:13">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2788,14 +2771,14 @@
   <sheetPr/>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:22">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1"/>
@@ -2817,34 +2800,34 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
     <row r="2" ht="113" customHeight="1" spans="1:22">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" ht="159" customHeight="1" spans="1:22">
       <c r="A3" s="7" t="s">
@@ -3165,7 +3148,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3198,22 +3181,22 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:20">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
@@ -3222,108 +3205,108 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:9">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" ht="34" customHeight="1" spans="1:9">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:9">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" ht="36" customHeight="1" spans="1:9">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:9">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" ht="36" customHeight="1" spans="1:9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:9">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3393,21 +3376,21 @@
     </row>
     <row r="4" customFormat="1" ht="16" customHeight="1"/>
     <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A6" t="s">
@@ -3423,21 +3406,21 @@
     <row r="9" customFormat="1" ht="16" customHeight="1"/>
     <row r="10" customFormat="1" ht="16" customHeight="1"/>
     <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:13">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:1">
       <c r="A12" t="s">
@@ -3474,7 +3457,7 @@
   <sheetPr/>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -3510,7 +3493,7 @@
       <c r="T1" s="4"/>
     </row>
     <row r="2" ht="18.75" spans="1:20">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="4"/>
@@ -3579,13 +3562,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
@@ -3598,31 +3581,31 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" customFormat="1" ht="64" customHeight="1" spans="1:5">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
@@ -3660,20 +3643,20 @@
       </c>
     </row>
     <row r="34" ht="31" customHeight="1" spans="1:12">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" ht="229" customHeight="1" spans="1:12">
       <c r="A35" s="7" t="s">
@@ -3752,18 +3735,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
-    <col min="3" max="3" width="93.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="52.125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="87.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:19">
@@ -3841,12 +3824,18 @@
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:19">
-      <c r="A4" s="18" t="s">
+    <row r="4" ht="121" customHeight="1" spans="1:19">
+      <c r="A4" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>98</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -3864,15 +3853,18 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" ht="66" customHeight="1" spans="1:19">
+    <row r="5" ht="101" customHeight="1" spans="1:19">
       <c r="A5" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -3890,17 +3882,17 @@
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" ht="126" customHeight="1" spans="1:19">
+    <row r="6" ht="84" customHeight="1" spans="1:19">
       <c r="A6" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D6" s="12"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -3917,16 +3909,18 @@
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" ht="106" customHeight="1" spans="1:19">
+    <row r="7" ht="140" customHeight="1" spans="1:19">
       <c r="A7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="C7" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -3944,13 +3938,18 @@
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" ht="81" spans="1:19">
+    <row r="8" ht="126" customHeight="1" spans="1:19">
       <c r="A8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -3968,13 +3967,16 @@
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" ht="47" customHeight="1" spans="1:19">
+    <row r="9" ht="106" customHeight="1" spans="1:19">
       <c r="A9" s="17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -3992,16 +3994,18 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" ht="142" customHeight="1" spans="1:19">
+    <row r="10" ht="54" spans="1:19">
       <c r="A10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="17"/>
+        <v>119</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="C10" s="12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -4019,13 +4023,16 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" ht="154" customHeight="1" spans="1:19">
+    <row r="11" ht="35" customHeight="1" spans="1:19">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -4043,13 +4050,16 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:19">
-      <c r="A12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="17"/>
+    <row r="12" ht="82" customHeight="1" spans="1:19">
+      <c r="A12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -4067,13 +4077,16 @@
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" ht="54" spans="1:19">
-      <c r="A13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12" t="s">
-        <v>120</v>
+    <row r="13" ht="99" customHeight="1" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -4091,13 +4104,13 @@
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
     </row>
-    <row r="14" ht="84" customHeight="1" spans="1:19">
+    <row r="14" ht="27" customHeight="1" spans="1:19">
       <c r="A14" s="17" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -4115,13 +4128,13 @@
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:19">
-      <c r="A15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="20"/>
+    <row r="15" ht="34" customHeight="1" spans="1:19">
+      <c r="A15" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="17"/>
       <c r="C15" s="12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -4139,233 +4152,18 @@
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>126</v>
+    <row r="16" ht="22" customHeight="1" spans="1:3">
+      <c r="A16" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" ht="45" customHeight="1" spans="1:19">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" ht="135" spans="1:19">
-      <c r="A18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-    </row>
-    <row r="19" ht="43" customHeight="1" spans="1:19">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-    </row>
-    <row r="21" ht="209" customHeight="1" spans="1:19">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:19">
-      <c r="A22" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-    </row>
-    <row r="23" ht="34" customHeight="1" spans="1:19">
-      <c r="A23" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>145</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="2">
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4386,7 +4184,7 @@
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -4410,7 +4208,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4431,7 +4229,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:17">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4452,7 +4250,7 @@
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4473,7 +4271,7 @@
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:17">
       <c r="A5" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -4494,7 +4292,7 @@
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4515,7 +4313,7 @@
     </row>
     <row r="7" ht="56" customHeight="1" spans="1:17">
       <c r="A7" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -4536,7 +4334,7 @@
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:17">
       <c r="A8" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4557,7 +4355,7 @@
     </row>
     <row r="9" ht="66" customHeight="1" spans="1:17">
       <c r="A9" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
